--- a/server_specs.xlsx
+++ b/server_specs.xlsx
@@ -1,40 +1,134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CI_류승현\OneDrive\문서\바탕 화면\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43CE536-8F00-4919-970F-5D1475F87890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+  <si>
+    <t>H/W</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Hostname</t>
+  </si>
+  <si>
+    <t>CPU info</t>
+  </si>
+  <si>
+    <t>Memory info</t>
+  </si>
+  <si>
+    <t>Disk info</t>
+  </si>
+  <si>
+    <t>CentOS</t>
+  </si>
+  <si>
+    <t>RHEL</t>
+  </si>
+  <si>
+    <t>Ubuntu</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Public IP</t>
+  </si>
+  <si>
+    <t>LoadBalancer IP</t>
+  </si>
+  <si>
+    <t>shryu-k8s</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Ubuntu 20.04.3 LTS</t>
+  </si>
+  <si>
+    <t>223.130.139.60</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -42,17 +136,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -340,94 +487,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Hostname</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>CPU info</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Memory info</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Disk info</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Release</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Public IP</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>LoadBalancer IP</t>
-        </is>
-      </c>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="5"/>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>shryu-k8s</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ubuntu 20.04.3 LTS</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>223.130.139.60</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>223.130.145.103</t>
-        </is>
-      </c>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>